--- a/biology/Écologie/Advances_in_Ecological_Research/Advances_in_Ecological_Research.xlsx
+++ b/biology/Écologie/Advances_in_Ecological_Research/Advances_in_Ecological_Research.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Advances in Ecological Research (abrégé en Adv. Ecol. Res.) est une série monographique publiée par Elsevier qui traite de tous les aspects de l'écologie. La publication des volumes est irrégulière, mais ils paraissent environ tous les ans.  Chaque volume traite d’un thème particulier et possède un ISBN. Ainsi, chaque volume peut être considéré comme une monographie.   
